--- a/YG엔터주분석/YG주가_2013_.xlsx
+++ b/YG엔터주분석/YG주가_2013_.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Project_cslee_sj\Project_TurnAround\YG엔터주분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AE01693-AC51-4D54-B31A-454DC56946BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E077606-E4A0-4108-9499-507CAE5CADF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F33FB13D-9713-43DF-BB84-436A7371D4F5}"/>
   </bookViews>
@@ -419,7 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AD0726-6055-4DE4-A9A9-31A0D8E22BBE}">
   <dimension ref="A1:F1881"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1858" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1853" workbookViewId="0">
       <selection activeCell="M1871" sqref="M1871"/>
     </sheetView>
   </sheetViews>
